--- a/2021-03-25 Lightbend Platform Due Diligence Report - Included.xlsx
+++ b/2021-03-25 Lightbend Platform Due Diligence Report - Included.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hywel/Documents/GitHub/Included-Licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3311C87-361B-A347-BC9F-6A8E21C108CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D02192-1BC0-B045-961C-C7AA0CE250CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21880" yWindow="-28740" windowWidth="49500" windowHeight="27300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15204" uniqueCount="3423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15203" uniqueCount="3422">
   <si>
     <t>License</t>
   </si>
@@ -11574,15 +11574,9 @@
     <t>http://repo.jfrog.org/artifactory/third-party-releases/org/scala-lang/modules/scala-asm/9.1.0-scala-1/scala-asm-9.1.0-scala-1.jar</t>
   </si>
   <si>
-    <t>Lightbend Akka Platform</t>
-  </si>
-  <si>
     <t>Lightbend software uses third-party libraries or other resources that may be distributed under licenses different than the Lightbend Commercial License.</t>
   </si>
   <si>
-    <t>In the event of accidental omission, please bring it to our attention by sending email to licenses@lightbend.com.</t>
-  </si>
-  <si>
     <t>Akka 2.6.x</t>
   </si>
   <si>
@@ -11625,9 +11619,6 @@
     <t>Slick 3.2.x</t>
   </si>
   <si>
-    <t>Document version 2.8 revised on March 25, 2021 based on the following projects only (note Docker-based commericial products are NOT included in these reports):</t>
-  </si>
-  <si>
     <t>ent-suite-licenses-common-1.0.0.jar</t>
   </si>
   <si>
@@ -11664,13 +11655,19 @@
     <t>Akka Streams Kafka 2.1.x</t>
   </si>
   <si>
-    <t>Telemetry 2.15.x</t>
-  </si>
-  <si>
-    <t>(formerly known as Cinnamon)</t>
-  </si>
-  <si>
     <t>Play gRPC 0.9.x</t>
+  </si>
+  <si>
+    <t>Document version 2.8 revised on March 25, 2021 based on the following projects only (note Docker-based commercial products are NOT included in these reports):</t>
+  </si>
+  <si>
+    <t>**Lightbend Akka Platform**</t>
+  </si>
+  <si>
+    <t>In the event of accidental omission, please bring it to our attention by sending email to licenses@lightbend.com</t>
+  </si>
+  <si>
+    <t>Telemetry 2.15.x (formerly known as Cinnamon)</t>
   </si>
 </sst>
 </file>
@@ -12096,14 +12093,14 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>3390</v>
+        <v>3419</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -12117,7 +12114,7 @@
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12143,7 +12140,7 @@
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>3392</v>
+        <v>3420</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -12169,7 +12166,7 @@
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>3407</v>
+        <v>3418</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -12184,7 +12181,7 @@
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -12198,7 +12195,7 @@
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -12212,7 +12209,7 @@
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -12226,7 +12223,7 @@
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -12240,7 +12237,7 @@
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -12254,7 +12251,7 @@
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -12268,7 +12265,7 @@
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -12282,7 +12279,7 @@
     <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -12296,7 +12293,7 @@
     <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -12310,7 +12307,7 @@
     <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="5" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -12324,7 +12321,7 @@
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -12338,7 +12335,7 @@
     <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -12352,7 +12349,7 @@
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -12366,11 +12363,9 @@
     <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C20" s="6" t="s">
         <v>3421</v>
       </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -12382,7 +12377,7 @@
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -12396,7 +12391,7 @@
     <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -12410,7 +12405,7 @@
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -12424,7 +12419,7 @@
     <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="5" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -12438,7 +12433,7 @@
     <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -12452,7 +12447,7 @@
     <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -12466,7 +12461,7 @@
     <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -61007,13 +61002,13 @@
         <v>10</v>
       </c>
       <c r="B1660" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="C1660" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="D1660" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="E1660" t="s">
         <v>385</v>
@@ -61028,7 +61023,7 @@
         <v>25</v>
       </c>
       <c r="J1660" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -61036,13 +61031,13 @@
         <v>10</v>
       </c>
       <c r="B1661" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="C1661" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="D1661" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="E1661" t="s">
         <v>385</v>
@@ -61057,7 +61052,7 @@
         <v>25</v>
       </c>
       <c r="J1661" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -61080,7 +61075,7 @@
         <v>262</v>
       </c>
       <c r="G1662" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="H1662" t="s">
         <v>1860</v>
@@ -61089,7 +61084,7 @@
         <v>262</v>
       </c>
       <c r="J1662" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -61118,7 +61113,7 @@
         <v>25</v>
       </c>
       <c r="J1663" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1664" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/2021-03-25 Lightbend Platform Due Diligence Report - Included.xlsx
+++ b/2021-03-25 Lightbend Platform Due Diligence Report - Included.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hywel/Documents/GitHub/Included-Licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D02192-1BC0-B045-961C-C7AA0CE250CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD431EC-16B7-4445-B69A-584F66181A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="-28740" windowWidth="49500" windowHeight="27300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29140" yWindow="-28440" windowWidth="49500" windowHeight="27300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -11661,13 +11661,13 @@
     <t>Document version 2.8 revised on March 25, 2021 based on the following projects only (note Docker-based commercial products are NOT included in these reports):</t>
   </si>
   <si>
-    <t>**Lightbend Akka Platform**</t>
-  </si>
-  <si>
     <t>In the event of accidental omission, please bring it to our attention by sending email to licenses@lightbend.com</t>
   </si>
   <si>
     <t>Telemetry 2.15.x (formerly known as Cinnamon)</t>
+  </si>
+  <si>
+    <t>Lightbend Akka Platform</t>
   </si>
 </sst>
 </file>
@@ -12093,14 +12093,14 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -12363,7 +12363,7 @@
     <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
